--- a/medicine/Psychotrope/Großwald_Brauerei_Bauer/Großwald_Brauerei_Bauer.xlsx
+++ b/medicine/Psychotrope/Großwald_Brauerei_Bauer/Großwald_Brauerei_Bauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gro%C3%9Fwald_Brauerei_Bauer</t>
+          <t>Großwald_Brauerei_Bauer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Großwald Brauerei Bauer est une brasserie de Eiweiler, quartier de Heusweiler.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gro%C3%9Fwald_Brauerei_Bauer</t>
+          <t>Großwald_Brauerei_Bauer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est une entreprise familiale depuis sa création en 1860. Le directeur général Alexander Kleber est ainsi la cinquième génération à diriger l'entreprise, ses fils Christian et Florian constituant la sixième génération. En 2010, environ 40 000 hectolitres de bière furent brassés avec 30 employés.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gro%C3%9Fwald_Brauerei_Bauer</t>
+          <t>Großwald_Brauerei_Bauer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gamme de produits comprend différentes variétés telles que la Hofgut Pils, la Zwickel, la Weißbier, la Landbier, l'Export et la Festtrunk. En outre, la boisson à la bière mélangée G-Mix et un panaché sont produits. Les bières sont principalement vendues en Sarre. En plus de la bière, l'eau minérale Köllertal est également mise en bouteille dans la brasserie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gamme de produits comprend différentes variétés telles que la Hofgut Pils, la Zwickel, la Weißbier, la Landbier, l'Export et la Festtrunk. En outre, la boisson à la bière mélangée G-Mix et un panaché sont produits. Les bières sont principalement vendues en Sarre. En plus de la bière, l'eau minérale Köllertal est également mise en bouteille dans la brasserie.
 </t>
         </is>
       </c>
